--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.7</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2.6</v>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -543,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0.027</v>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0.045</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0.3</v>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0.3</v>
@@ -599,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>0.07000000000000001</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0.21</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0.7</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2.6</v>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -543,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0.027</v>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0.045</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>0.3</v>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>0.3</v>
@@ -599,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>0.07000000000000001</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0.21</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_gm_Fried Chicken Batter Masala.xlsx
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="D2">
         <v>0.7</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D4">
         <v>2.6</v>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -543,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="D8">
         <v>0.027</v>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="D9">
         <v>0.045</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="D10">
         <v>0.3</v>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="D11">
         <v>0.3</v>
@@ -599,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>42.85714285714286</v>
       </c>
       <c r="D12">
         <v>0.07000000000000001</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="D14">
         <v>0.21</v>
